--- a/Actualizacion de datos/PRUEBA DE ESCRITORIO.xlsx
+++ b/Actualizacion de datos/PRUEBA DE ESCRITORIO.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ftorrenegra/Desktop/Simulador/Actualizacion de datos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="-28000" yWindow="-12940" windowWidth="24420" windowHeight="14720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="interfaz gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Prueba de escritorio" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="134">
   <si>
     <t>Conexión</t>
   </si>
@@ -947,6 +958,9 @@
   </si>
   <si>
     <t>VT</t>
+  </si>
+  <si>
+    <t>Deltas</t>
   </si>
 </sst>
 </file>
@@ -1099,26 +1113,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1126,17 +1140,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -1146,7 +1160,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1154,36 +1168,36 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1191,35 +1205,35 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1228,17 +1242,17 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1249,7 +1263,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1319,6 +1333,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1355,26 +1370,17 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1403,7 +1409,15 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2880,7 +2894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2890,39 +2904,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AG36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="3.5" customWidth="1"/>
+    <col min="11" max="11" width="3.1640625" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.1640625" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.1640625" customWidth="1"/>
     <col min="19" max="20" width="3" customWidth="1"/>
-    <col min="21" max="21" width="3.140625" customWidth="1"/>
+    <col min="21" max="21" width="3.1640625" customWidth="1"/>
     <col min="22" max="22" width="3" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.7109375" customWidth="1"/>
-    <col min="26" max="26" width="3.5703125" customWidth="1"/>
-    <col min="27" max="27" width="4.42578125" customWidth="1"/>
-    <col min="31" max="31" width="6.5703125" customWidth="1"/>
-    <col min="32" max="32" width="3.5703125" customWidth="1"/>
+    <col min="24" max="24" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.6640625" customWidth="1"/>
+    <col min="26" max="26" width="3.5" customWidth="1"/>
+    <col min="27" max="27" width="4.5" customWidth="1"/>
+    <col min="31" max="31" width="6.5" customWidth="1"/>
+    <col min="32" max="32" width="3.5" customWidth="1"/>
     <col min="33" max="33" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -2956,43 +2970,43 @@
       <c r="AF2" s="12"/>
       <c r="AG2" s="12"/>
     </row>
-    <row r="3" spans="2:33" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:33" ht="26" x14ac:dyDescent="0.3">
       <c r="B3" s="12"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -3026,7 +3040,7 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3060,18 +3074,18 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" s="12"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -3083,24 +3097,24 @@
       <c r="S6" s="6"/>
       <c r="T6" s="12"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="33" t="s">
+      <c r="V6" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="35" t="s">
+      <c r="AA6" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="38"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="12"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3134,7 +3148,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
@@ -3168,7 +3182,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="12"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
       <c r="C9" s="6"/>
       <c r="D9" s="2"/>
@@ -3210,7 +3224,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" s="12"/>
       <c r="C10" s="6"/>
       <c r="D10" s="2"/>
@@ -3244,7 +3258,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="12"/>
     </row>
-    <row r="11" spans="2:33" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" ht="17" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="6"/>
       <c r="D11" s="2"/>
@@ -3296,7 +3310,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" s="12"/>
       <c r="C12" s="6"/>
       <c r="D12" s="2"/>
@@ -3330,7 +3344,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="12"/>
     </row>
-    <row r="13" spans="2:33" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:33" ht="17" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="6"/>
       <c r="D13" s="2"/>
@@ -3376,7 +3390,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="12"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
       <c r="C14" s="6"/>
       <c r="D14" s="2"/>
@@ -3410,7 +3424,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="12"/>
     </row>
-    <row r="15" spans="2:33" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:33" ht="17" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="6"/>
       <c r="D15" s="2"/>
@@ -3458,7 +3472,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="12"/>
       <c r="C16" s="6"/>
       <c r="D16" s="2"/>
@@ -3492,7 +3506,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="12"/>
     </row>
-    <row r="17" spans="2:33" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:33" ht="17" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="6"/>
       <c r="D17" s="2"/>
@@ -3546,7 +3560,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="12"/>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B18" s="12"/>
       <c r="C18" s="6"/>
       <c r="D18" s="2"/>
@@ -3580,7 +3594,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="12"/>
     </row>
-    <row r="19" spans="2:33" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:33" ht="17" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="6"/>
       <c r="D19" s="2"/>
@@ -3591,10 +3605,10 @@
         <v>60</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="39"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -3624,15 +3638,15 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="12"/>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B20" s="12"/>
       <c r="C20" s="6"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
       <c r="L20" s="7"/>
@@ -3658,7 +3672,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
       <c r="C21" s="6"/>
       <c r="D21" s="2"/>
@@ -3669,8 +3683,8 @@
         <v>0.8</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
       <c r="L21" s="7"/>
@@ -3702,7 +3716,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="12"/>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
       <c r="C22" s="6"/>
       <c r="D22" s="2"/>
@@ -3736,7 +3750,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="2:33" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:33" ht="17" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
@@ -3778,7 +3792,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="12"/>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -3812,7 +3826,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="12"/>
     </row>
-    <row r="25" spans="2:33" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:33" ht="17" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
@@ -3856,7 +3870,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="12"/>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
@@ -3890,7 +3904,7 @@
       <c r="AF26" s="6"/>
       <c r="AG26" s="12"/>
     </row>
-    <row r="27" spans="2:33" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:33" ht="17" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -3928,7 +3942,7 @@
       <c r="AF27" s="6"/>
       <c r="AG27" s="12"/>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
@@ -3962,7 +3976,7 @@
       <c r="AF28" s="6"/>
       <c r="AG28" s="12"/>
     </row>
-    <row r="29" spans="2:33" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:33" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
@@ -4008,7 +4022,7 @@
       <c r="AF29" s="6"/>
       <c r="AG29" s="12"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
@@ -4042,7 +4056,7 @@
       <c r="AF30" s="6"/>
       <c r="AG30" s="12"/>
     </row>
-    <row r="31" spans="2:33" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:33" ht="17" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
@@ -4080,7 +4094,7 @@
       <c r="AF31" s="6"/>
       <c r="AG31" s="12"/>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B32" s="12"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
@@ -4114,7 +4128,7 @@
       <c r="AF32" s="6"/>
       <c r="AG32" s="12"/>
     </row>
-    <row r="33" spans="2:33" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:33" ht="17" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
@@ -4164,7 +4178,7 @@
       <c r="AF33" s="6"/>
       <c r="AG33" s="12"/>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B34" s="12"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
@@ -4198,7 +4212,7 @@
       <c r="AF34" s="6"/>
       <c r="AG34" s="12"/>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B35" s="12"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -4232,7 +4246,7 @@
       <c r="AF35" s="6"/>
       <c r="AG35" s="12"/>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -4283,34 +4297,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="86" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="3" style="19" customWidth="1"/>
-    <col min="3" max="8" width="11.42578125" style="19"/>
-    <col min="9" max="9" width="12.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" style="19" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="19"/>
-    <col min="17" max="17" width="13.7109375" style="19" customWidth="1"/>
+    <col min="3" max="8" width="10.83203125" style="19"/>
+    <col min="9" max="9" width="12.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="3.5" style="19" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="19"/>
+    <col min="17" max="17" width="13.6640625" style="19" customWidth="1"/>
     <col min="18" max="18" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="11.42578125" style="19"/>
-    <col min="22" max="22" width="16.28515625" style="19" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="19"/>
-    <col min="24" max="24" width="14.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="10.83203125" style="19"/>
+    <col min="22" max="22" width="16.33203125" style="19" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="19"/>
+    <col min="24" max="24" width="14.83203125" style="19" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.42578125" style="19"/>
+    <col min="26" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -4323,51 +4337,51 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="18"/>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="49"/>
-      <c r="V2" s="47" t="s">
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="61"/>
+      <c r="V2" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="49"/>
-    </row>
-    <row r="3" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="61"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
       <c r="M3" s="21"/>
-      <c r="O3" s="45" t="s">
+      <c r="O3" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
       <c r="T3" s="21"/>
-      <c r="V3" s="45" t="s">
+      <c r="V3" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
       <c r="Y3" s="22"/>
       <c r="Z3" s="22"/>
       <c r="AA3" s="21"/>
@@ -4414,18 +4428,18 @@
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
       <c r="M5" s="21"/>
       <c r="O5" s="20" t="s">
         <v>74</v>
@@ -4456,18 +4470,18 @@
       <c r="Z5" s="22"/>
       <c r="AA5" s="21"/>
     </row>
-    <row r="6" spans="2:27" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="55" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="57" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="23" t="s">
@@ -4485,7 +4499,7 @@
       <c r="K6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="55" t="s">
         <v>2</v>
       </c>
       <c r="M6" s="21"/>
@@ -4518,12 +4532,12 @@
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
-      <c r="C7" s="58"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="60"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="24" t="s">
         <v>50</v>
       </c>
@@ -4537,7 +4551,7 @@
       <c r="K7" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="58"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="21"/>
       <c r="O7" s="20"/>
       <c r="P7" s="22" t="s">
@@ -4545,7 +4559,7 @@
       </c>
       <c r="Q7" s="22">
         <f>IF(J8="Delta",D8,D8/SQRT(3))</f>
-        <v>220</v>
+        <v>127.01705922171767</v>
       </c>
       <c r="R7" s="22" t="s">
         <v>86</v>
@@ -4587,7 +4601,7 @@
         <v>0.8</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="K8" s="25">
         <v>60</v>
@@ -4614,7 +4628,7 @@
       <c r="Z8" s="22"/>
       <c r="AA8" s="21"/>
     </row>
-    <row r="9" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4627,11 +4641,11 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="21"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="21"/>
@@ -4649,17 +4663,17 @@
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B10" s="20"/>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
-      <c r="K10" s="52" t="s">
+      <c r="K10" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="53"/>
+      <c r="L10" s="51"/>
       <c r="M10" s="21"/>
       <c r="O10" s="20" t="s">
         <v>62</v>
@@ -4733,7 +4747,7 @@
       </c>
       <c r="X11" s="22">
         <f>IF(J8="Delta",X10,D8/SQRT(3))</f>
-        <v>220.02697302174033</v>
+        <v>127.01705922171767</v>
       </c>
       <c r="Y11" s="22" t="s">
         <v>86</v>
@@ -4783,7 +4797,7 @@
       <c r="Z12" s="22"/>
       <c r="AA12" s="21"/>
     </row>
-    <row r="13" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B13" s="20"/>
       <c r="C13" s="28">
         <v>0.25</v>
@@ -4806,16 +4820,16 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="21"/>
-      <c r="V13" s="45" t="s">
+      <c r="V13" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
       <c r="Y13" s="22"/>
       <c r="Z13" s="22"/>
       <c r="AA13" s="21"/>
     </row>
-    <row r="14" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B14" s="20"/>
       <c r="C14" s="28">
         <v>0.5</v>
@@ -4826,18 +4840,18 @@
       <c r="E14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="54" t="s">
+      <c r="I14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="21"/>
-      <c r="O14" s="45" t="s">
+      <c r="O14" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="21"/>
@@ -4918,7 +4932,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B16" s="20"/>
       <c r="C16" s="28">
         <v>1</v>
@@ -4948,7 +4962,7 @@
       </c>
       <c r="Q16" s="22">
         <f>(180/PI())*(-ACOS(SQRT(G8^2+H8^2)*Q15/(3*Q6*Q7)+Q7*COS(-ATAN(H8/G8))/Q6)+ATAN(H8/G8))</f>
-        <v>8.0519364541616358</v>
+        <v>12.763351225118452</v>
       </c>
       <c r="R16" s="22" t="s">
         <v>83</v>
@@ -4956,7 +4970,7 @@
       <c r="S16" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="T16" s="61" t="s">
+      <c r="T16" s="33" t="s">
         <v>92</v>
       </c>
       <c r="V16" s="20" t="s">
@@ -5007,7 +5021,7 @@
       <c r="Z17" s="22"/>
       <c r="AA17" s="21"/>
     </row>
-    <row r="18" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
       <c r="C18" s="28">
         <v>1.5</v>
@@ -5024,19 +5038,19 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="45" t="s">
+      <c r="O18" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="21"/>
-      <c r="V18" s="45" t="s">
+      <c r="V18" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="49"/>
       <c r="Y18" s="22"/>
       <c r="Z18" s="22"/>
       <c r="AA18" s="21"/>
@@ -5066,7 +5080,7 @@
       </c>
       <c r="Q19" s="27">
         <f>(-3*Q6*Q7*SIN(Q16*PI()/180-ATAN(H8/G8))+3*Q7*Q7*SIN(-ATAN(H8/G8)))/SQRT(G8^2+H8^2)</f>
-        <v>164310.41127272265</v>
+        <v>342800.12071209063</v>
       </c>
       <c r="R19" s="22" t="s">
         <v>95</v>
@@ -5097,7 +5111,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" s="20"/>
       <c r="C20" s="28">
         <v>2</v>
@@ -5122,7 +5136,7 @@
       </c>
       <c r="Q20" s="22">
         <f>Q15/SQRT(Q15^2+Q19^2)</f>
-        <v>0.76471816467433307</v>
+        <v>0.49444485276290151</v>
       </c>
       <c r="R20" s="22"/>
       <c r="S20" s="22" t="s">
@@ -5138,8 +5152,8 @@
         <v>78</v>
       </c>
       <c r="X20" s="22">
-        <f>(180/PI())*(-ACOS(SQRT(G8^2+H8^2)*X19/(3*X6*X10)+X10*COS(-ATAN(H8/G8))/X6)+ATAN(H8/G8))</f>
-        <v>10.591744642816032</v>
+        <f>(180/PI())*(-ACOS(SQRT(G8^2+H8^2)*X19/(3*X6*X11)+X11*COS(-ATAN(H8/G8))/X6)+ATAN(H8/G8))</f>
+        <v>17.303936133609461</v>
       </c>
       <c r="Y20" s="22" t="s">
         <v>83</v>
@@ -5176,7 +5190,7 @@
       </c>
       <c r="Q21" s="22">
         <f>SQRT(Q15^2+Q19^2)/(SQRT(3)*D8)</f>
-        <v>669.19070017432409</v>
+        <v>1034.9835400143888</v>
       </c>
       <c r="R21" s="22" t="s">
         <v>84</v>
@@ -5194,7 +5208,7 @@
       <c r="Z21" s="22"/>
       <c r="AA21" s="21"/>
     </row>
-    <row r="22" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" s="20"/>
       <c r="C22" s="28">
         <v>2.5</v>
@@ -5209,7 +5223,10 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
+      <c r="L22" s="22">
+        <f>(G8^2+H8^2)</f>
+        <v>1.7833000000000002E-2</v>
+      </c>
       <c r="M22" s="21"/>
       <c r="O22" s="20" t="s">
         <v>65</v>
@@ -5219,7 +5236,7 @@
       </c>
       <c r="Q22" s="22">
         <f>ACOS(Q20)*180/PI()</f>
-        <v>40.118074788615502</v>
+        <v>60.366850038261049</v>
       </c>
       <c r="R22" s="22" t="s">
         <v>83</v>
@@ -5230,11 +5247,11 @@
       <c r="T22" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="V22" s="45" t="s">
+      <c r="V22" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
       <c r="AA22" s="21"/>
@@ -5278,12 +5295,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="O24" s="45" t="s">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="O24" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="21"/>
@@ -5345,7 +5362,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
       <c r="O26" s="20" t="s">
         <v>63</v>
       </c>
@@ -5354,7 +5371,7 @@
       </c>
       <c r="Q26" s="27">
         <f>L16-Q19</f>
-        <v>-14310.411272722646</v>
+        <v>-192800.12071209063</v>
       </c>
       <c r="R26" s="22" t="s">
         <v>95</v>
@@ -5394,7 +5411,7 @@
       </c>
       <c r="Q27" s="27">
         <f>SQRT(Q25^2+Q26^2)</f>
-        <v>56831.222675519377</v>
+        <v>200491.61216020165</v>
       </c>
       <c r="R27" s="22" t="s">
         <v>85</v>
@@ -5412,7 +5429,7 @@
       <c r="Z27" s="22"/>
       <c r="AA27" s="21"/>
     </row>
-    <row r="28" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
       <c r="O28" s="20" t="s">
         <v>65</v>
       </c>
@@ -5421,7 +5438,7 @@
       </c>
       <c r="Q28" s="22">
         <f>Q25/Q27</f>
-        <v>0.96777787650329417</v>
+        <v>0.27432569077280189</v>
       </c>
       <c r="R28" s="22"/>
       <c r="S28" s="22" t="s">
@@ -5430,11 +5447,11 @@
       <c r="T28" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="V28" s="45" t="s">
+      <c r="V28" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
       <c r="Y28" s="22"/>
       <c r="Z28" s="22"/>
       <c r="AA28" s="21"/>
@@ -5465,12 +5482,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="O30" s="45" t="s">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="O30" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
       <c r="T30" s="21"/>
@@ -5502,7 +5519,7 @@
       </c>
       <c r="Q31" s="22">
         <f>Q6*COS(Q16*PI()/180)</f>
-        <v>256.65649196859414</v>
+        <v>252.80702882214877</v>
       </c>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
@@ -5535,7 +5552,7 @@
       </c>
       <c r="Q32" s="22">
         <f>Q6*SIN(Q16*PI()/180)</f>
-        <v>36.307992522314166</v>
+        <v>57.266319671711834</v>
       </c>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
@@ -5571,20 +5588,20 @@
       <c r="Z33" s="22"/>
       <c r="AA33" s="21"/>
     </row>
-    <row r="34" spans="15:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="O34" s="45" t="s">
+    <row r="34" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O34" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
       <c r="T34" s="21"/>
-      <c r="V34" s="45" t="s">
+      <c r="V34" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
       <c r="Y34" s="22"/>
       <c r="Z34" s="22"/>
       <c r="AA34" s="21"/>
@@ -5626,7 +5643,7 @@
       </c>
       <c r="Q36" s="22">
         <f>Q21*G8*SIN(-Q22*PI()/180)</f>
-        <v>-5.1744360097617026</v>
+        <v>-10.795404107528826</v>
       </c>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
@@ -5659,20 +5676,20 @@
       <c r="Z37" s="22"/>
       <c r="AA37" s="21"/>
     </row>
-    <row r="38" spans="15:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="O38" s="45" t="s">
+    <row r="38" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O38" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
       <c r="T38" s="21"/>
-      <c r="V38" s="45" t="s">
+      <c r="V38" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="49"/>
       <c r="Y38" s="22"/>
       <c r="Z38" s="22"/>
       <c r="AA38" s="21"/>
@@ -5686,7 +5703,7 @@
       </c>
       <c r="Q39" s="22">
         <f>Q21*H8*COS(PI()/2-Q22*PI()/180)</f>
-        <v>57.349999108192215</v>
+        <v>119.64906219177783</v>
       </c>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
@@ -5747,20 +5764,20 @@
       <c r="Z41" s="22"/>
       <c r="AA41" s="21"/>
     </row>
-    <row r="42" spans="15:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="O42" s="45" t="s">
+    <row r="42" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O42" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="21"/>
-      <c r="V42" s="45" t="s">
+      <c r="V42" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="49"/>
       <c r="Y42" s="22"/>
       <c r="Z42" s="22"/>
       <c r="AA42" s="21"/>
@@ -5774,7 +5791,7 @@
       </c>
       <c r="Q43" s="22">
         <f>Q7</f>
-        <v>220</v>
+        <v>127.01705922171767</v>
       </c>
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
@@ -5828,12 +5845,12 @@
       <c r="Z45" s="22"/>
       <c r="AA45" s="21"/>
     </row>
-    <row r="46" spans="15:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="V46" s="45" t="s">
+    <row r="46" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="V46" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="W46" s="46"/>
-      <c r="X46" s="46"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
       <c r="Y46" s="22"/>
       <c r="Z46" s="22"/>
       <c r="AA46" s="21"/>
@@ -5869,6 +5886,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="V22:X22"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="O9:Q9"/>
@@ -5881,23 +5915,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="C5:L5"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="V46:X46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Actualizacion de datos/PRUEBA DE ESCRITORIO.xlsx
+++ b/Actualizacion de datos/PRUEBA DE ESCRITORIO.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="133">
   <si>
     <t>Conexión</t>
   </si>
@@ -958,9 +958,6 @@
   </si>
   <si>
     <t>VT</t>
-  </si>
-  <si>
-    <t>Deltas</t>
   </si>
 </sst>
 </file>
@@ -4298,7 +4295,7 @@
   <dimension ref="B2:AA48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I2" zoomScale="86" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4559,7 +4556,7 @@
       </c>
       <c r="Q7" s="22">
         <f>IF(J8="Delta",D8,D8/SQRT(3))</f>
-        <v>127.01705922171767</v>
+        <v>220</v>
       </c>
       <c r="R7" s="22" t="s">
         <v>86</v>
@@ -4601,7 +4598,7 @@
         <v>0.8</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="K8" s="25">
         <v>60</v>
@@ -4747,7 +4744,7 @@
       </c>
       <c r="X11" s="22">
         <f>IF(J8="Delta",X10,D8/SQRT(3))</f>
-        <v>127.01705922171767</v>
+        <v>220.02697302174033</v>
       </c>
       <c r="Y11" s="22" t="s">
         <v>86</v>
@@ -4962,7 +4959,7 @@
       </c>
       <c r="Q16" s="22">
         <f>(180/PI())*(-ACOS(SQRT(G8^2+H8^2)*Q15/(3*Q6*Q7)+Q7*COS(-ATAN(H8/G8))/Q6)+ATAN(H8/G8))</f>
-        <v>12.763351225118452</v>
+        <v>8.0519364541616358</v>
       </c>
       <c r="R16" s="22" t="s">
         <v>83</v>
@@ -5080,7 +5077,7 @@
       </c>
       <c r="Q19" s="27">
         <f>(-3*Q6*Q7*SIN(Q16*PI()/180-ATAN(H8/G8))+3*Q7*Q7*SIN(-ATAN(H8/G8)))/SQRT(G8^2+H8^2)</f>
-        <v>342800.12071209063</v>
+        <v>164310.41127272265</v>
       </c>
       <c r="R19" s="22" t="s">
         <v>95</v>
@@ -5136,7 +5133,7 @@
       </c>
       <c r="Q20" s="22">
         <f>Q15/SQRT(Q15^2+Q19^2)</f>
-        <v>0.49444485276290151</v>
+        <v>0.76471816467433307</v>
       </c>
       <c r="R20" s="22"/>
       <c r="S20" s="22" t="s">
@@ -5153,7 +5150,7 @@
       </c>
       <c r="X20" s="22">
         <f>(180/PI())*(-ACOS(SQRT(G8^2+H8^2)*X19/(3*X6*X11)+X11*COS(-ATAN(H8/G8))/X6)+ATAN(H8/G8))</f>
-        <v>17.303936133609461</v>
+        <v>10.591744642816032</v>
       </c>
       <c r="Y20" s="22" t="s">
         <v>83</v>
@@ -5190,7 +5187,7 @@
       </c>
       <c r="Q21" s="22">
         <f>SQRT(Q15^2+Q19^2)/(SQRT(3)*D8)</f>
-        <v>1034.9835400143888</v>
+        <v>669.19070017432409</v>
       </c>
       <c r="R21" s="22" t="s">
         <v>84</v>
@@ -5236,7 +5233,7 @@
       </c>
       <c r="Q22" s="22">
         <f>ACOS(Q20)*180/PI()</f>
-        <v>60.366850038261049</v>
+        <v>40.118074788615502</v>
       </c>
       <c r="R22" s="22" t="s">
         <v>83</v>
@@ -5371,7 +5368,7 @@
       </c>
       <c r="Q26" s="27">
         <f>L16-Q19</f>
-        <v>-192800.12071209063</v>
+        <v>-14310.411272722646</v>
       </c>
       <c r="R26" s="22" t="s">
         <v>95</v>
@@ -5411,7 +5408,7 @@
       </c>
       <c r="Q27" s="27">
         <f>SQRT(Q25^2+Q26^2)</f>
-        <v>200491.61216020165</v>
+        <v>56831.222675519377</v>
       </c>
       <c r="R27" s="22" t="s">
         <v>85</v>
@@ -5438,7 +5435,7 @@
       </c>
       <c r="Q28" s="22">
         <f>Q25/Q27</f>
-        <v>0.27432569077280189</v>
+        <v>0.96777787650329417</v>
       </c>
       <c r="R28" s="22"/>
       <c r="S28" s="22" t="s">
@@ -5519,7 +5516,7 @@
       </c>
       <c r="Q31" s="22">
         <f>Q6*COS(Q16*PI()/180)</f>
-        <v>252.80702882214877</v>
+        <v>256.65649196859414</v>
       </c>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
@@ -5552,7 +5549,7 @@
       </c>
       <c r="Q32" s="22">
         <f>Q6*SIN(Q16*PI()/180)</f>
-        <v>57.266319671711834</v>
+        <v>36.307992522314166</v>
       </c>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
@@ -5643,7 +5640,7 @@
       </c>
       <c r="Q36" s="22">
         <f>Q21*G8*SIN(-Q22*PI()/180)</f>
-        <v>-10.795404107528826</v>
+        <v>-5.1744360097617026</v>
       </c>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
@@ -5703,7 +5700,7 @@
       </c>
       <c r="Q39" s="22">
         <f>Q21*H8*COS(PI()/2-Q22*PI()/180)</f>
-        <v>119.64906219177783</v>
+        <v>57.349999108192215</v>
       </c>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
@@ -5791,7 +5788,7 @@
       </c>
       <c r="Q43" s="22">
         <f>Q7</f>
-        <v>127.01705922171767</v>
+        <v>220</v>
       </c>
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>

--- a/Actualizacion de datos/PRUEBA DE ESCRITORIO.xlsx
+++ b/Actualizacion de datos/PRUEBA DE ESCRITORIO.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ftorrenegra/Desktop/Simulador/Actualizacion de datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftorr\Desktop\Simulador\Actualizacion de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28000" yWindow="-12940" windowWidth="24420" windowHeight="14720" activeTab="1"/>
+    <workbookView xWindow="-28005" yWindow="-12945" windowWidth="24420" windowHeight="14715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="interfaz gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Prueba de escritorio" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1367,17 +1367,26 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1405,15 +1414,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1454,7 +1454,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1492,7 +1498,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Elipse 2"/>
+        <xdr:cNvPr id="3" name="Elipse 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1554,7 +1566,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="Grupo 14"/>
+        <xdr:cNvPr id="15" name="Grupo 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1567,7 +1585,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo 3"/>
+          <xdr:cNvPr id="4" name="Rectángulo 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1618,7 +1642,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectángulo 4"/>
+          <xdr:cNvPr id="5" name="Rectángulo 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1669,7 +1699,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Triángulo isósceles 5"/>
+          <xdr:cNvPr id="6" name="Triángulo isósceles 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1720,7 +1756,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Rectángulo 6"/>
+          <xdr:cNvPr id="7" name="Rectángulo 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1771,7 +1813,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Triángulo isósceles 7"/>
+          <xdr:cNvPr id="8" name="Triángulo isósceles 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1822,7 +1870,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectángulo 8"/>
+          <xdr:cNvPr id="9" name="Rectángulo 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1889,7 +1943,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Conector recto 10"/>
+        <xdr:cNvPr id="11" name="Conector recto 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1941,7 +2001,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="Grupo 15"/>
+        <xdr:cNvPr id="16" name="Grupo 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1954,7 +2020,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Rectángulo 16"/>
+          <xdr:cNvPr id="17" name="Rectángulo 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2005,7 +2077,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Rectángulo 17"/>
+          <xdr:cNvPr id="18" name="Rectángulo 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2056,7 +2134,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Triángulo isósceles 18"/>
+          <xdr:cNvPr id="19" name="Triángulo isósceles 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2107,7 +2191,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="Rectángulo 19"/>
+          <xdr:cNvPr id="20" name="Rectángulo 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2158,7 +2248,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="Triángulo isósceles 20"/>
+          <xdr:cNvPr id="21" name="Triángulo isósceles 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2209,7 +2305,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="Rectángulo 21"/>
+          <xdr:cNvPr id="22" name="Rectángulo 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2276,7 +2378,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="Grupo 29"/>
+        <xdr:cNvPr id="30" name="Grupo 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2289,7 +2397,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="Rectángulo 30"/>
+          <xdr:cNvPr id="31" name="Rectángulo 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2340,7 +2454,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="Rectángulo 31"/>
+          <xdr:cNvPr id="32" name="Rectángulo 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2391,7 +2511,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="Triángulo isósceles 32"/>
+          <xdr:cNvPr id="33" name="Triángulo isósceles 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2442,7 +2568,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="Rectángulo 33"/>
+          <xdr:cNvPr id="34" name="Rectángulo 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2493,7 +2625,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="Triángulo isósceles 34"/>
+          <xdr:cNvPr id="35" name="Triángulo isósceles 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2544,7 +2682,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="Rectángulo 35"/>
+          <xdr:cNvPr id="36" name="Rectángulo 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2611,7 +2755,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Imagen 36"/>
+        <xdr:cNvPr id="37" name="Imagen 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2905,35 +3055,35 @@
       <selection activeCell="B2" sqref="B2:AG36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.83203125" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="3.5" customWidth="1"/>
-    <col min="11" max="11" width="3.1640625" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.1640625" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" customWidth="1"/>
     <col min="19" max="20" width="3" customWidth="1"/>
-    <col min="21" max="21" width="3.1640625" customWidth="1"/>
+    <col min="21" max="21" width="3.140625" customWidth="1"/>
     <col min="22" max="22" width="3" customWidth="1"/>
-    <col min="24" max="24" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.6640625" customWidth="1"/>
-    <col min="26" max="26" width="3.5" customWidth="1"/>
-    <col min="27" max="27" width="4.5" customWidth="1"/>
-    <col min="31" max="31" width="6.5" customWidth="1"/>
-    <col min="32" max="32" width="3.5" customWidth="1"/>
+    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.7109375" customWidth="1"/>
+    <col min="26" max="26" width="3.42578125" customWidth="1"/>
+    <col min="27" max="27" width="4.42578125" customWidth="1"/>
+    <col min="31" max="31" width="6.42578125" customWidth="1"/>
+    <col min="32" max="32" width="3.42578125" customWidth="1"/>
     <col min="33" max="33" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -2967,7 +3117,7 @@
       <c r="AF2" s="12"/>
       <c r="AG2" s="12"/>
     </row>
-    <row r="3" spans="2:33" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="12"/>
       <c r="C3" s="35" t="s">
         <v>42</v>
@@ -3003,7 +3153,7 @@
       <c r="AF3" s="35"/>
       <c r="AG3" s="12"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -3037,7 +3187,7 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3071,7 +3221,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="6"/>
       <c r="D6" s="45" t="s">
@@ -3111,7 +3261,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="12"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3145,7 +3295,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="12"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
@@ -3179,7 +3329,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="12"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="6"/>
       <c r="D9" s="2"/>
@@ -3221,7 +3371,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="12"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="6"/>
       <c r="D10" s="2"/>
@@ -3255,7 +3405,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="12"/>
     </row>
-    <row r="11" spans="2:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" ht="18" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="6"/>
       <c r="D11" s="2"/>
@@ -3307,7 +3457,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="6"/>
       <c r="D12" s="2"/>
@@ -3341,7 +3491,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="12"/>
     </row>
-    <row r="13" spans="2:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="6"/>
       <c r="D13" s="2"/>
@@ -3387,7 +3537,7 @@
       <c r="AF13" s="6"/>
       <c r="AG13" s="12"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="6"/>
       <c r="D14" s="2"/>
@@ -3421,7 +3571,7 @@
       <c r="AF14" s="6"/>
       <c r="AG14" s="12"/>
     </row>
-    <row r="15" spans="2:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="6"/>
       <c r="D15" s="2"/>
@@ -3469,7 +3619,7 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="12"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="6"/>
       <c r="D16" s="2"/>
@@ -3503,7 +3653,7 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="12"/>
     </row>
-    <row r="17" spans="2:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="6"/>
       <c r="D17" s="2"/>
@@ -3557,7 +3707,7 @@
       <c r="AF17" s="6"/>
       <c r="AG17" s="12"/>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="6"/>
       <c r="D18" s="2"/>
@@ -3591,7 +3741,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="12"/>
     </row>
-    <row r="19" spans="2:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="6"/>
       <c r="D19" s="2"/>
@@ -3635,7 +3785,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="12"/>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="6"/>
       <c r="D20" s="2"/>
@@ -3669,7 +3819,7 @@
       <c r="AF20" s="6"/>
       <c r="AG20" s="12"/>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="6"/>
       <c r="D21" s="2"/>
@@ -3713,7 +3863,7 @@
       <c r="AF21" s="6"/>
       <c r="AG21" s="12"/>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="6"/>
       <c r="D22" s="2"/>
@@ -3747,7 +3897,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="12"/>
     </row>
-    <row r="23" spans="2:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
@@ -3789,7 +3939,7 @@
       <c r="AF23" s="6"/>
       <c r="AG23" s="12"/>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -3823,7 +3973,7 @@
       <c r="AF24" s="6"/>
       <c r="AG24" s="12"/>
     </row>
-    <row r="25" spans="2:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33" ht="18" x14ac:dyDescent="0.35">
       <c r="B25" s="12"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
@@ -3867,7 +4017,7 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="12"/>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
@@ -3901,7 +4051,7 @@
       <c r="AF26" s="6"/>
       <c r="AG26" s="12"/>
     </row>
-    <row r="27" spans="2:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="12"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -3939,7 +4089,7 @@
       <c r="AF27" s="6"/>
       <c r="AG27" s="12"/>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
@@ -3973,7 +4123,7 @@
       <c r="AF28" s="6"/>
       <c r="AG28" s="12"/>
     </row>
-    <row r="29" spans="2:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="12"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
@@ -4019,7 +4169,7 @@
       <c r="AF29" s="6"/>
       <c r="AG29" s="12"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
@@ -4053,7 +4203,7 @@
       <c r="AF30" s="6"/>
       <c r="AG30" s="12"/>
     </row>
-    <row r="31" spans="2:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33" ht="18" x14ac:dyDescent="0.35">
       <c r="B31" s="12"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
@@ -4091,7 +4241,7 @@
       <c r="AF31" s="6"/>
       <c r="AG31" s="12"/>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
@@ -4125,7 +4275,7 @@
       <c r="AF32" s="6"/>
       <c r="AG32" s="12"/>
     </row>
-    <row r="33" spans="2:33" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:33" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="12"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
@@ -4175,7 +4325,7 @@
       <c r="AF33" s="6"/>
       <c r="AG33" s="12"/>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
@@ -4209,7 +4359,7 @@
       <c r="AF34" s="6"/>
       <c r="AG34" s="12"/>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -4243,7 +4393,7 @@
       <c r="AF35" s="6"/>
       <c r="AG35" s="12"/>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -4294,34 +4444,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="86" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="86" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="19" customWidth="1"/>
     <col min="2" max="2" width="3" style="19" customWidth="1"/>
-    <col min="3" max="8" width="10.83203125" style="19"/>
-    <col min="9" max="9" width="12.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="3.5" style="19" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="19"/>
-    <col min="17" max="17" width="13.6640625" style="19" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="19"/>
+    <col min="9" max="9" width="12.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" style="19" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="19"/>
+    <col min="17" max="17" width="13.7109375" style="19" customWidth="1"/>
     <col min="18" max="18" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="10.83203125" style="19"/>
-    <col min="22" max="22" width="16.33203125" style="19" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" style="19"/>
-    <col min="24" max="24" width="14.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="10.85546875" style="19"/>
+    <col min="22" max="22" width="16.28515625" style="19" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="19"/>
+    <col min="24" max="24" width="14.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="19"/>
+    <col min="26" max="16384" width="10.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -4334,51 +4484,51 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="18"/>
-      <c r="O2" s="59" t="s">
+      <c r="O2" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
-      <c r="V2" s="59" t="s">
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="50"/>
+      <c r="V2" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="61"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="50"/>
+    </row>
+    <row r="3" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="21"/>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
       <c r="T3" s="21"/>
-      <c r="V3" s="48" t="s">
+      <c r="V3" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
       <c r="Y3" s="22"/>
       <c r="Z3" s="22"/>
       <c r="AA3" s="21"/>
@@ -4425,18 +4575,18 @@
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
       <c r="M5" s="21"/>
       <c r="O5" s="20" t="s">
         <v>74</v>
@@ -4467,18 +4617,18 @@
       <c r="Z5" s="22"/>
       <c r="AA5" s="21"/>
     </row>
-    <row r="6" spans="2:27" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="60" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="23" t="s">
@@ -4496,7 +4646,7 @@
       <c r="K6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="58" t="s">
         <v>2</v>
       </c>
       <c r="M6" s="21"/>
@@ -4529,12 +4679,12 @@
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
-      <c r="C7" s="56"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="24" t="s">
         <v>50</v>
       </c>
@@ -4548,7 +4698,7 @@
       <c r="K7" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="56"/>
+      <c r="L7" s="59"/>
       <c r="M7" s="21"/>
       <c r="O7" s="20"/>
       <c r="P7" s="22" t="s">
@@ -4625,7 +4775,7 @@
       <c r="Z8" s="22"/>
       <c r="AA8" s="21"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -4638,11 +4788,11 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="21"/>
-      <c r="O9" s="48" t="s">
+      <c r="O9" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="21"/>
@@ -4660,17 +4810,17 @@
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B10" s="20"/>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="51"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="21"/>
       <c r="O10" s="20" t="s">
         <v>62</v>
@@ -4743,7 +4893,7 @@
         <v>132</v>
       </c>
       <c r="X11" s="22">
-        <f>IF(J8="Delta",X10,D8/SQRT(3))</f>
+        <f>IF(J8="Delta",X10,X10*SQRT(3))</f>
         <v>220.02697302174033</v>
       </c>
       <c r="Y11" s="22" t="s">
@@ -4794,7 +4944,7 @@
       <c r="Z12" s="22"/>
       <c r="AA12" s="21"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B13" s="20"/>
       <c r="C13" s="28">
         <v>0.25</v>
@@ -4817,16 +4967,16 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="21"/>
-      <c r="V13" s="48" t="s">
+      <c r="V13" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
       <c r="Y13" s="22"/>
       <c r="Z13" s="22"/>
       <c r="AA13" s="21"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B14" s="20"/>
       <c r="C14" s="28">
         <v>0.5</v>
@@ -4837,18 +4987,18 @@
       <c r="E14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
       <c r="M14" s="21"/>
-      <c r="O14" s="48" t="s">
+      <c r="O14" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="21"/>
@@ -4929,7 +5079,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
       <c r="C16" s="28">
         <v>1</v>
@@ -5018,7 +5168,7 @@
       <c r="Z17" s="22"/>
       <c r="AA17" s="21"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
       <c r="C18" s="28">
         <v>1.5</v>
@@ -5035,19 +5185,19 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="48" t="s">
+      <c r="O18" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="21"/>
-      <c r="V18" s="48" t="s">
+      <c r="V18" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
       <c r="Y18" s="22"/>
       <c r="Z18" s="22"/>
       <c r="AA18" s="21"/>
@@ -5108,7 +5258,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
       <c r="C20" s="28">
         <v>2</v>
@@ -5149,7 +5299,7 @@
         <v>78</v>
       </c>
       <c r="X20" s="22">
-        <f>(180/PI())*(-ACOS(SQRT(G8^2+H8^2)*X19/(3*X6*X11)+X11*COS(-ATAN(H8/G8))/X6)+ATAN(H8/G8))</f>
+        <f>(180/PI())*(-ACOS(SQRT(G8^2+H8^2)*X19/(3*X6*X10)+X10*COS(-ATAN(H8/G8))/X6)+ATAN(H8/G8))</f>
         <v>10.591744642816032</v>
       </c>
       <c r="Y20" s="22" t="s">
@@ -5205,7 +5355,7 @@
       <c r="Z21" s="22"/>
       <c r="AA21" s="21"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="20"/>
       <c r="C22" s="28">
         <v>2.5</v>
@@ -5244,11 +5394,11 @@
       <c r="T22" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="V22" s="48" t="s">
+      <c r="V22" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
       <c r="AA22" s="21"/>
@@ -5292,12 +5442,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="O24" s="48" t="s">
+    <row r="24" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="O24" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="21"/>
@@ -5359,7 +5509,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O26" s="20" t="s">
         <v>63</v>
       </c>
@@ -5426,7 +5576,7 @@
       <c r="Z27" s="22"/>
       <c r="AA27" s="21"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
       <c r="O28" s="20" t="s">
         <v>65</v>
       </c>
@@ -5444,11 +5594,11 @@
       <c r="T28" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="V28" s="48" t="s">
+      <c r="V28" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
       <c r="Y28" s="22"/>
       <c r="Z28" s="22"/>
       <c r="AA28" s="21"/>
@@ -5479,12 +5629,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="O30" s="48" t="s">
+    <row r="30" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="O30" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
       <c r="T30" s="21"/>
@@ -5585,20 +5735,20 @@
       <c r="Z33" s="22"/>
       <c r="AA33" s="21"/>
     </row>
-    <row r="34" spans="15:27" x14ac:dyDescent="0.2">
-      <c r="O34" s="48" t="s">
+    <row r="34" spans="15:27" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="O34" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
       <c r="T34" s="21"/>
-      <c r="V34" s="48" t="s">
+      <c r="V34" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
       <c r="Y34" s="22"/>
       <c r="Z34" s="22"/>
       <c r="AA34" s="21"/>
@@ -5673,20 +5823,20 @@
       <c r="Z37" s="22"/>
       <c r="AA37" s="21"/>
     </row>
-    <row r="38" spans="15:27" x14ac:dyDescent="0.2">
-      <c r="O38" s="48" t="s">
+    <row r="38" spans="15:27" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="O38" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
       <c r="T38" s="21"/>
-      <c r="V38" s="48" t="s">
+      <c r="V38" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="W38" s="49"/>
-      <c r="X38" s="49"/>
+      <c r="W38" s="47"/>
+      <c r="X38" s="47"/>
       <c r="Y38" s="22"/>
       <c r="Z38" s="22"/>
       <c r="AA38" s="21"/>
@@ -5761,20 +5911,20 @@
       <c r="Z41" s="22"/>
       <c r="AA41" s="21"/>
     </row>
-    <row r="42" spans="15:27" x14ac:dyDescent="0.2">
-      <c r="O42" s="48" t="s">
+    <row r="42" spans="15:27" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="O42" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="49"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="21"/>
-      <c r="V42" s="48" t="s">
+      <c r="V42" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="W42" s="49"/>
-      <c r="X42" s="49"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="47"/>
       <c r="Y42" s="22"/>
       <c r="Z42" s="22"/>
       <c r="AA42" s="21"/>
@@ -5842,12 +5992,12 @@
       <c r="Z45" s="22"/>
       <c r="AA45" s="21"/>
     </row>
-    <row r="46" spans="15:27" x14ac:dyDescent="0.2">
-      <c r="V46" s="48" t="s">
+    <row r="46" spans="15:27" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="V46" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="W46" s="49"/>
-      <c r="X46" s="49"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="47"/>
       <c r="Y46" s="22"/>
       <c r="Z46" s="22"/>
       <c r="AA46" s="21"/>
@@ -5883,23 +6033,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="V22:X22"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="O9:Q9"/>
@@ -5912,6 +6045,23 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="C5:L5"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="V46:X46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Actualizacion de datos/PRUEBA DE ESCRITORIO.xlsx
+++ b/Actualizacion de datos/PRUEBA DE ESCRITORIO.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftorr\Desktop\Simulador\Actualizacion de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcastilloj\Dropbox\03_UNINORTE\05_PORTAFOLIO UNINORTE\Actividades_2016\ACTIVIDAD  - CEDU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28005" yWindow="-12945" windowWidth="24420" windowHeight="14715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="interfaz gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Prueba de escritorio" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="145">
   <si>
     <t>Conexión</t>
   </si>
@@ -959,11 +953,47 @@
   <si>
     <t>VT</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>VX</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>Posición</t>
+  </si>
+  <si>
+    <t>EA0</t>
+  </si>
+  <si>
+    <t>EA1</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>IF0</t>
+  </si>
+  <si>
+    <t>IF1</t>
+  </si>
+  <si>
+    <t>CÁLCULOS INTERNOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1037,7 +1067,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,7 +1125,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,26 +1176,26 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1137,17 +1203,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -1157,7 +1223,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1165,36 +1231,36 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,35 +1268,35 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1239,17 +1305,17 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1260,7 +1326,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1330,7 +1396,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1367,26 +1432,17 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1415,17 +1471,65 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFF8585"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1435,6 +1539,1982 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prueba de escritorio'!$O$47:$O$48</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$P$47:$P$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.65649196859414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$Q$47:$Q$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.307992522314166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prueba de escritorio'!$O$49:$O$50</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Vf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$P$49:$P$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$Q$49:$Q$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prueba de escritorio'!$O$51:$O$52</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$P$51:$P$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223.54545454545453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$Q$51:$Q$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.9874620231404121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prueba de escritorio'!$O$53:$O$54</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$P$53:$P$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>223.54545454545453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256.65649196859408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$Q$53:$Q$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-2.9874620231404121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.307992522314137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="430229968"/>
+        <c:axId val="430231536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="430229968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430231536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430231536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430229968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prueba de escritorio'!$V$51:$V$52</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>EA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$W$51:$W$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254.79543751924589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$X$51:$X$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.645673570655859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prueba de escritorio'!$V$53:$V$54</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Vf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$W$53:$W$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220.02697302174033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$X$53:$X$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prueba de escritorio'!$V$55:$V$56</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$W$55:$W$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>220.02697302174033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>224.57187034167569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$X$55:$X$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7269383919612222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prueba de escritorio'!$V$57:$V$58</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>VX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$W$57:$W$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>224.57187034167569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254.79543751924592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Prueba de escritorio'!$X$57:$X$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-2.7269383919612222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.645673570655816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="478147056"/>
+        <c:axId val="478147448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="478147056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478147448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="478147448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478147056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1454,13 +3534,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1498,13 +3572,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Elipse 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Elipse 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1566,13 +3634,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="Grupo 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Grupo 14"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1585,13 +3647,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectángulo 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="4" name="Rectángulo 3"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1642,13 +3698,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectángulo 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="5" name="Rectángulo 4"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1699,13 +3749,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Triángulo isósceles 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="6" name="Triángulo isósceles 5"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1756,13 +3800,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Rectángulo 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="7" name="Rectángulo 6"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1813,13 +3851,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Triángulo isósceles 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="8" name="Triángulo isósceles 7"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1870,13 +3902,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectángulo 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="9" name="Rectángulo 8"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1943,13 +3969,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Conector recto 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="Conector recto 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2001,13 +4021,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="Grupo 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="Grupo 15"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2020,13 +4034,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Rectángulo 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="17" name="Rectángulo 16"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2077,13 +4085,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Rectángulo 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="18" name="Rectángulo 17"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2134,13 +4136,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Triángulo isósceles 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="19" name="Triángulo isósceles 18"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2191,13 +4187,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="Rectángulo 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="20" name="Rectángulo 19"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2248,13 +4238,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="Triángulo isósceles 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="21" name="Triángulo isósceles 20"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2305,13 +4289,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="Rectángulo 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="22" name="Rectángulo 21"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2378,13 +4356,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="Grupo 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="Grupo 29"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2397,13 +4369,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="Rectángulo 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="31" name="Rectángulo 30"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2454,13 +4420,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="Rectángulo 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="32" name="Rectángulo 31"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2511,13 +4471,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="Triángulo isósceles 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="33" name="Triángulo isósceles 32"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2568,13 +4522,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="Rectángulo 33">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="34" name="Rectángulo 33"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2625,13 +4573,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="Triángulo isósceles 34">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="35" name="Triángulo isósceles 34"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2682,13 +4624,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="Rectángulo 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="36" name="Rectángulo 35"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2755,13 +4691,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Imagen 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="37" name="Imagen 36"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2781,6 +4711,73 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>113179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>189379</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3051,8 +5048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AG36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,7 +5064,7 @@
     <col min="10" max="10" width="3.42578125" customWidth="1"/>
     <col min="11" max="11" width="3.140625" customWidth="1"/>
     <col min="12" max="12" width="3.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.140625" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.140625" customWidth="1"/>
@@ -3076,10 +5073,10 @@
     <col min="22" max="22" width="3" customWidth="1"/>
     <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="3.7109375" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" customWidth="1"/>
+    <col min="26" max="26" width="3.5703125" customWidth="1"/>
     <col min="27" max="27" width="4.42578125" customWidth="1"/>
-    <col min="31" max="31" width="6.42578125" customWidth="1"/>
-    <col min="32" max="32" width="3.42578125" customWidth="1"/>
+    <col min="31" max="31" width="6.5703125" customWidth="1"/>
+    <col min="32" max="32" width="3.5703125" customWidth="1"/>
     <col min="33" max="33" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3119,38 +5116,38 @@
     </row>
     <row r="3" spans="2:33" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="12"/>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
       <c r="AG3" s="12"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
@@ -3224,15 +5221,15 @@
     <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -3244,20 +5241,20 @@
       <c r="S6" s="6"/>
       <c r="T6" s="12"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="34" t="s">
+      <c r="V6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="36" t="s">
+      <c r="AA6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="38"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="37"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="12"/>
     </row>
@@ -3752,10 +5749,10 @@
         <v>60</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="40"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -3792,8 +5789,8 @@
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
       <c r="L20" s="7"/>
@@ -3830,8 +5827,8 @@
         <v>0.8</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
       <c r="L21" s="7"/>
@@ -4442,33 +6439,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA48"/>
+  <dimension ref="B2:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="86" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="19" customWidth="1"/>
     <col min="2" max="2" width="3" style="19" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="19"/>
-    <col min="9" max="9" width="12.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.42578125" style="19"/>
+    <col min="9" max="9" width="12.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.28515625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" style="19" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="19"/>
+    <col min="14" max="14" width="3.5703125" style="19" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="19"/>
     <col min="17" max="17" width="13.7109375" style="19" customWidth="1"/>
     <col min="18" max="18" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="10.85546875" style="19"/>
-    <col min="22" max="22" width="16.28515625" style="19" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" style="19"/>
+    <col min="19" max="21" width="11.42578125" style="19"/>
+    <col min="22" max="22" width="20.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="19"/>
     <col min="24" max="24" width="14.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.85546875" style="19"/>
+    <col min="26" max="16384" width="11.42578125" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
@@ -4484,51 +6481,51 @@
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="18"/>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50"/>
-      <c r="V2" s="48" t="s">
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="60"/>
+      <c r="V2" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="50"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="60"/>
     </row>
     <row r="3" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
       <c r="M3" s="21"/>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
       <c r="T3" s="21"/>
-      <c r="V3" s="46" t="s">
+      <c r="V3" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
       <c r="Y3" s="22"/>
       <c r="Z3" s="22"/>
       <c r="AA3" s="21"/>
@@ -4575,18 +6572,18 @@
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
       <c r="M5" s="21"/>
       <c r="O5" s="20" t="s">
         <v>74</v>
@@ -4619,16 +6616,16 @@
     </row>
     <row r="6" spans="2:27" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="54" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="56" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="23" t="s">
@@ -4646,7 +6643,7 @@
       <c r="K6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="54" t="s">
         <v>2</v>
       </c>
       <c r="M6" s="21"/>
@@ -4655,7 +6652,7 @@
         <v>73</v>
       </c>
       <c r="Q6" s="22">
-        <f>D19-(C19-Q5)*(D19-D18)/(C19-C18)</f>
+        <f>IF(J8="Delta",D32,D32/SQRT(3))</f>
         <v>259.21193103448275</v>
       </c>
       <c r="R6" s="22" t="s">
@@ -4668,7 +6665,7 @@
         <v>73</v>
       </c>
       <c r="X6" s="22">
-        <f>D19-(C19-Q5)*(D19-D18)/(C19-C18)</f>
+        <f>IF(J8="Delta",I32,I32/SQRT(3))</f>
         <v>259.21193103448275</v>
       </c>
       <c r="Y6" s="22" t="s">
@@ -4679,12 +6676,12 @@
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
-      <c r="C7" s="59"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="61"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="24" t="s">
         <v>50</v>
       </c>
@@ -4698,7 +6695,7 @@
       <c r="K7" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="59"/>
+      <c r="L7" s="55"/>
       <c r="M7" s="21"/>
       <c r="O7" s="20"/>
       <c r="P7" s="22" t="s">
@@ -4788,11 +6785,11 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="21"/>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="21"/>
@@ -4810,17 +6807,17 @@
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B10" s="20"/>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
-      <c r="K10" s="53" t="s">
+      <c r="K10" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="50"/>
       <c r="M10" s="21"/>
       <c r="O10" s="20" t="s">
         <v>62</v>
@@ -4869,23 +6866,23 @@
         <v>55</v>
       </c>
       <c r="M11" s="21"/>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="P11" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="22">
-        <f>Q10/(SQRT(3)*I16)</f>
-        <v>765.11401048197558</v>
-      </c>
-      <c r="R11" s="22" t="s">
+      <c r="Q11" s="72">
+        <f>Q10/(3*Q7)</f>
+        <v>441.73877991252272</v>
+      </c>
+      <c r="R11" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="S11" s="22" t="s">
+      <c r="S11" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="T11" s="21" t="s">
+      <c r="T11" s="73" t="s">
         <v>89</v>
       </c>
       <c r="V11" s="20"/>
@@ -4893,7 +6890,7 @@
         <v>132</v>
       </c>
       <c r="X11" s="22">
-        <f>IF(J8="Delta",X10,X10*SQRT(3))</f>
+        <f>IF(J8="Delta",X10,SQRT(3)*X10)</f>
         <v>220.02697302174033</v>
       </c>
       <c r="Y11" s="22" t="s">
@@ -4967,11 +6964,11 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="21"/>
-      <c r="V13" s="46" t="s">
+      <c r="V13" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
       <c r="Y13" s="22"/>
       <c r="Z13" s="22"/>
       <c r="AA13" s="21"/>
@@ -4987,18 +6984,18 @@
       <c r="E14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
       <c r="M14" s="21"/>
-      <c r="O14" s="46" t="s">
+      <c r="O14" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="21"/>
@@ -5059,23 +7056,23 @@
       <c r="T15" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="V15" s="20" t="s">
+      <c r="V15" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="W15" s="22" t="s">
+      <c r="W15" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="X15" s="22">
-        <f>Q10/(SQRT(3)*I16)</f>
-        <v>765.11401048197558</v>
-      </c>
-      <c r="Y15" s="22" t="s">
+      <c r="X15" s="72">
+        <f>X14/(SQRT(3)*X10)</f>
+        <v>765.02021545059768</v>
+      </c>
+      <c r="Y15" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="Z15" s="22" t="s">
+      <c r="Z15" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="AA15" s="21" t="s">
+      <c r="AA15" s="73" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5117,7 +7114,7 @@
       <c r="S16" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="T16" s="33" t="s">
+      <c r="T16" s="21" t="s">
         <v>92</v>
       </c>
       <c r="V16" s="20" t="s">
@@ -5127,7 +7124,7 @@
         <v>14</v>
       </c>
       <c r="X16" s="22">
-        <f>K16/Q10</f>
+        <f>K16/X14</f>
         <v>0.85749292571254421</v>
       </c>
       <c r="Y16" s="22"/>
@@ -5185,19 +7182,19 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="46" t="s">
+      <c r="O18" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="21"/>
-      <c r="V18" s="46" t="s">
+      <c r="V18" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
       <c r="Y18" s="22"/>
       <c r="Z18" s="22"/>
       <c r="AA18" s="21"/>
@@ -5329,23 +7326,23 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="21"/>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="P21" s="22" t="s">
+      <c r="P21" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="Q21" s="22">
-        <f>SQRT(Q15^2+Q19^2)/(SQRT(3)*D8)</f>
-        <v>669.19070017432409</v>
-      </c>
-      <c r="R21" s="22" t="s">
+      <c r="Q21" s="72">
+        <f>SQRT(Q15^2+Q19^2)/(3*Q7)</f>
+        <v>386.35743088484014</v>
+      </c>
+      <c r="R21" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="S21" s="22" t="s">
+      <c r="S21" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="T21" s="21" t="s">
+      <c r="T21" s="73" t="s">
         <v>99</v>
       </c>
       <c r="V21" s="20"/>
@@ -5370,35 +7367,32 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="22">
-        <f>(G8^2+H8^2)</f>
-        <v>1.7833000000000002E-2</v>
-      </c>
+      <c r="L22" s="22"/>
       <c r="M22" s="21"/>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="29" t="s">
+      <c r="P22" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="Q22" s="22">
-        <f>ACOS(Q20)*180/PI()</f>
+      <c r="Q22" s="72">
+        <f>(IF(Q19&lt;0,-1,1))*ACOS(Q20)*180/PI()</f>
         <v>40.118074788615502</v>
       </c>
-      <c r="R22" s="22" t="s">
+      <c r="R22" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="S22" s="22" t="s">
+      <c r="S22" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="T22" s="21" t="s">
+      <c r="T22" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="V22" s="46" t="s">
+      <c r="V22" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
       <c r="AA22" s="21"/>
@@ -5443,11 +7437,11 @@
       </c>
     </row>
     <row r="24" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="O24" s="46" t="s">
+      <c r="O24" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="21"/>
@@ -5470,6 +7464,17 @@
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C25" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="76"/>
       <c r="O25" s="20" t="s">
         <v>62</v>
       </c>
@@ -5489,27 +7494,46 @@
       <c r="T25" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="V25" s="20" t="s">
+      <c r="V25" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="W25" s="22" t="s">
+      <c r="W25" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="X25" s="22">
-        <f>SQRT(X19^2+X23^2)/(SQRT(3)*D8)</f>
-        <v>765.11401048197558</v>
-      </c>
-      <c r="Y25" s="22" t="s">
+      <c r="X25" s="72">
+        <f>SQRT(X19^2+X23^2)/(3*X10)</f>
+        <v>441.68462732590802</v>
+      </c>
+      <c r="Y25" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="Z25" s="22" t="s">
+      <c r="Z25" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="AA25" s="21" t="s">
+      <c r="AA25" s="73" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="78">
+        <f>Q5</f>
+        <v>1.52</v>
+      </c>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="80">
+        <f>X5</f>
+        <v>1.52</v>
+      </c>
+      <c r="J26" s="79"/>
+      <c r="K26" s="81"/>
       <c r="O26" s="20" t="s">
         <v>63</v>
       </c>
@@ -5529,27 +7553,46 @@
       <c r="T26" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="V26" s="20" t="s">
+      <c r="V26" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="W26" s="29" t="s">
+      <c r="W26" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="X26" s="22">
-        <f>ACOS(X24)*180/PI()</f>
+      <c r="X26" s="72">
+        <f>(IF(X23&lt;0,-1,1))*ACOS(X24)*180/PI()</f>
         <v>30.963756532073518</v>
       </c>
-      <c r="Y26" s="22" t="s">
+      <c r="Y26" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="Z26" s="22" t="s">
+      <c r="Z26" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="AA26" s="21" t="s">
+      <c r="AA26" s="73" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C27" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="78">
+        <f>MATCH(D26,C12:C22,1)</f>
+        <v>7</v>
+      </c>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="78">
+        <f>MATCH(I26,C12:C22,1)</f>
+        <v>7</v>
+      </c>
+      <c r="J27" s="77"/>
+      <c r="K27" s="82"/>
       <c r="O27" s="20" t="s">
         <v>64</v>
       </c>
@@ -5577,6 +7620,15 @@
       <c r="AA27" s="21"/>
     </row>
     <row r="28" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C28" s="77"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="82"/>
       <c r="O28" s="20" t="s">
         <v>65</v>
       </c>
@@ -5594,16 +7646,45 @@
       <c r="T28" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="V28" s="46" t="s">
+      <c r="V28" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
       <c r="Y28" s="22"/>
       <c r="Z28" s="22"/>
       <c r="AA28" s="21"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C29" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="78">
+        <f>INDEX(D12:D22,D27)</f>
+        <v>258.43758620689653</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="78">
+        <f>INDEX(C12:C22,D27)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G29" s="82"/>
+      <c r="H29" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" s="78">
+        <f>INDEX(D12:D22,I27)</f>
+        <v>258.43758620689653</v>
+      </c>
+      <c r="J29" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="K29" s="82">
+        <f>INDEX(C12:C22,I27)</f>
+        <v>1.5</v>
+      </c>
       <c r="O29" s="20"/>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
@@ -5630,11 +7711,40 @@
       </c>
     </row>
     <row r="30" spans="2:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="O30" s="46" t="s">
+      <c r="C30" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="78">
+        <f>INDEX(D12:D22,D27+1)</f>
+        <v>268.11689655172415</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="78">
+        <f>INDEX(C12:C22,D27+1)</f>
+        <v>1.75</v>
+      </c>
+      <c r="G30" s="82"/>
+      <c r="H30" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="78">
+        <f>INDEX(D12:D22,I27+1)</f>
+        <v>268.11689655172415</v>
+      </c>
+      <c r="J30" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="82">
+        <f>INDEX(C12:C22,I27+1)</f>
+        <v>1.75</v>
+      </c>
+      <c r="O30" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
       <c r="T30" s="21"/>
@@ -5658,6 +7768,25 @@
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C31" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="78">
+        <f>((D30-D29)/(F30-F29))</f>
+        <v>38.717241379310508</v>
+      </c>
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" s="78">
+        <f>((I30-I29)/(K30-K29))</f>
+        <v>38.717241379310508</v>
+      </c>
+      <c r="J31" s="77"/>
+      <c r="K31" s="82"/>
       <c r="O31" s="20" t="s">
         <v>113</v>
       </c>
@@ -5691,6 +7820,25 @@
       </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C32" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="84">
+        <f>IF(D26&lt;MAX(C12:C22),D31*D26-D31*F29+D29,MAX(D12:D22))</f>
+        <v>259.21193103448275</v>
+      </c>
+      <c r="E32" s="83"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="84">
+        <f>IF(I26&lt;MAX(C12:C22),I31*I26-I31*K29+I29,MAX(D12:D22))</f>
+        <v>259.21193103448275</v>
+      </c>
+      <c r="J32" s="83"/>
+      <c r="K32" s="85"/>
       <c r="O32" s="20" t="s">
         <v>114</v>
       </c>
@@ -5736,19 +7884,19 @@
       <c r="AA33" s="21"/>
     </row>
     <row r="34" spans="15:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="O34" s="46" t="s">
+      <c r="O34" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
       <c r="T34" s="21"/>
-      <c r="V34" s="46" t="s">
+      <c r="V34" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
       <c r="Y34" s="22"/>
       <c r="Z34" s="22"/>
       <c r="AA34" s="21"/>
@@ -5762,7 +7910,7 @@
       </c>
       <c r="Q35" s="22">
         <f>Q21*G8*COS(-Q22*PI()/180)</f>
-        <v>6.140907408653292</v>
+        <v>3.5454545454545454</v>
       </c>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
@@ -5774,8 +7922,8 @@
         <v>115</v>
       </c>
       <c r="X35" s="22">
-        <f>X6*COS(X26*PI()/180)</f>
-        <v>222.27239712235684</v>
+        <f>X6*COS(X20*PI()/180)</f>
+        <v>254.79543751924589</v>
       </c>
       <c r="Y35" s="22"/>
       <c r="Z35" s="22"/>
@@ -5790,7 +7938,7 @@
       </c>
       <c r="Q36" s="22">
         <f>Q21*G8*SIN(-Q22*PI()/180)</f>
-        <v>-5.1744360097617026</v>
+        <v>-2.9874620231404121</v>
       </c>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
@@ -5802,8 +7950,8 @@
         <v>116</v>
       </c>
       <c r="X36" s="22">
-        <f>X6*SIN(X26*PI()/180)</f>
-        <v>133.36343827341409</v>
+        <f>X6*SIN(X20*PI()/180)</f>
+        <v>47.645673570655859</v>
       </c>
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
@@ -5824,19 +7972,19 @@
       <c r="AA37" s="21"/>
     </row>
     <row r="38" spans="15:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="O38" s="46" t="s">
+      <c r="O38" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
       <c r="T38" s="21"/>
-      <c r="V38" s="46" t="s">
+      <c r="V38" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="W38" s="47"/>
-      <c r="X38" s="47"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
       <c r="Y38" s="22"/>
       <c r="Z38" s="22"/>
       <c r="AA38" s="21"/>
@@ -5850,7 +7998,7 @@
       </c>
       <c r="Q39" s="22">
         <f>Q21*H8*COS(PI()/2-Q22*PI()/180)</f>
-        <v>57.349999108192215</v>
+        <v>33.111037423139571</v>
       </c>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
@@ -5863,7 +8011,7 @@
       </c>
       <c r="X39" s="22">
         <f>X25*G8*COS(-X26*PI()/180)</f>
-        <v>7.8729582162221705</v>
+        <v>4.5448973199353713</v>
       </c>
       <c r="Y39" s="22"/>
       <c r="Z39" s="22"/>
@@ -5878,7 +8026,7 @@
       </c>
       <c r="Q40" s="22">
         <f>Q21*H8*SIN(PI()/2-Q22*PI()/180)</f>
-        <v>68.061723779240651</v>
+        <v>39.295454545454547</v>
       </c>
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
@@ -5891,7 +8039,7 @@
       </c>
       <c r="X40" s="22">
         <f>X25*G8*SIN(-X26*PI()/180)</f>
-        <v>-4.7237749297333016</v>
+        <v>-2.7269383919612222</v>
       </c>
       <c r="Y40" s="22"/>
       <c r="Z40" s="22"/>
@@ -5912,19 +8060,19 @@
       <c r="AA41" s="21"/>
     </row>
     <row r="42" spans="15:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="O42" s="46" t="s">
+      <c r="O42" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="21"/>
-      <c r="V42" s="46" t="s">
+      <c r="V42" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="W42" s="47"/>
-      <c r="X42" s="47"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
       <c r="Y42" s="22"/>
       <c r="Z42" s="22"/>
       <c r="AA42" s="21"/>
@@ -5951,7 +8099,7 @@
       </c>
       <c r="X43" s="22">
         <f>X25*H8*COS(PI()/2-X26*PI()/180)</f>
-        <v>52.355172137877425</v>
+        <v>30.223567177570217</v>
       </c>
       <c r="Y43" s="22"/>
       <c r="Z43" s="22"/>
@@ -5978,7 +8126,7 @@
       </c>
       <c r="X44" s="22">
         <f>X25*H8*SIN(PI()/2-X26*PI()/180)</f>
-        <v>87.258620229795724</v>
+        <v>50.372611962617036</v>
       </c>
       <c r="Y44" s="22"/>
       <c r="Z44" s="22"/>
@@ -5993,16 +8141,32 @@
       <c r="AA45" s="21"/>
     </row>
     <row r="46" spans="15:27" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="V46" s="46" t="s">
+      <c r="O46" s="68"/>
+      <c r="P46" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q46" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="V46" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="W46" s="47"/>
-      <c r="X46" s="47"/>
+      <c r="W46" s="48"/>
+      <c r="X46" s="48"/>
       <c r="Y46" s="22"/>
       <c r="Z46" s="22"/>
       <c r="AA46" s="21"/>
     </row>
     <row r="47" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O47" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="65">
+        <v>0</v>
+      </c>
       <c r="V47" s="20" t="s">
         <v>113</v>
       </c>
@@ -6018,6 +8182,15 @@
       <c r="AA47" s="21"/>
     </row>
     <row r="48" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O48" s="64"/>
+      <c r="P48" s="65">
+        <f>Q31</f>
+        <v>256.65649196859414</v>
+      </c>
+      <c r="Q48" s="65">
+        <f>Q32</f>
+        <v>36.307992522314166</v>
+      </c>
       <c r="V48" s="30" t="s">
         <v>114</v>
       </c>
@@ -6031,8 +8204,195 @@
       <c r="Z48" s="31"/>
       <c r="AA48" s="32"/>
     </row>
+    <row r="49" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="O49" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="O50" s="63"/>
+      <c r="P50" s="66">
+        <f>Q43</f>
+        <v>220</v>
+      </c>
+      <c r="Q50" s="66">
+        <f>Q44</f>
+        <v>0</v>
+      </c>
+      <c r="V50" s="68"/>
+      <c r="W50" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="X50" s="70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="O51" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="P51" s="67">
+        <f>P50</f>
+        <v>220</v>
+      </c>
+      <c r="Q51" s="67">
+        <f>Q50</f>
+        <v>0</v>
+      </c>
+      <c r="V51" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="W51" s="65">
+        <v>0</v>
+      </c>
+      <c r="X51" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="O52" s="62"/>
+      <c r="P52" s="67">
+        <f>P51+Q35</f>
+        <v>223.54545454545453</v>
+      </c>
+      <c r="Q52" s="67">
+        <f>Q51+Q36</f>
+        <v>-2.9874620231404121</v>
+      </c>
+      <c r="V52" s="64"/>
+      <c r="W52" s="65">
+        <f>X35</f>
+        <v>254.79543751924589</v>
+      </c>
+      <c r="X52" s="65">
+        <f>X36</f>
+        <v>47.645673570655859</v>
+      </c>
+    </row>
+    <row r="53" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="O53" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="P53" s="69">
+        <f>P52</f>
+        <v>223.54545454545453</v>
+      </c>
+      <c r="Q53" s="69">
+        <f>Q52</f>
+        <v>-2.9874620231404121</v>
+      </c>
+      <c r="V53" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="W53" s="66">
+        <v>0</v>
+      </c>
+      <c r="X53" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="O54" s="61"/>
+      <c r="P54" s="69">
+        <f>P53+Q39</f>
+        <v>256.65649196859408</v>
+      </c>
+      <c r="Q54" s="69">
+        <f>Q53+Q40</f>
+        <v>36.307992522314137</v>
+      </c>
+      <c r="V54" s="63"/>
+      <c r="W54" s="66">
+        <f>X47</f>
+        <v>220.02697302174033</v>
+      </c>
+      <c r="X54" s="66">
+        <f>X48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="V55" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="W55" s="67">
+        <f>W54</f>
+        <v>220.02697302174033</v>
+      </c>
+      <c r="X55" s="67">
+        <f>X54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="V56" s="62"/>
+      <c r="W56" s="67">
+        <f>W55+X39</f>
+        <v>224.57187034167569</v>
+      </c>
+      <c r="X56" s="67">
+        <f>X55+X40</f>
+        <v>-2.7269383919612222</v>
+      </c>
+    </row>
+    <row r="57" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="V57" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="W57" s="69">
+        <f>W56</f>
+        <v>224.57187034167569</v>
+      </c>
+      <c r="X57" s="69">
+        <f>X56</f>
+        <v>-2.7269383919612222</v>
+      </c>
+    </row>
+    <row r="58" spans="15:24" x14ac:dyDescent="0.2">
+      <c r="V58" s="61"/>
+      <c r="W58" s="69">
+        <f>W57+X43</f>
+        <v>254.79543751924592</v>
+      </c>
+      <c r="X58" s="69">
+        <f>X57+X44</f>
+        <v>47.645673570655816</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="38">
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="V57:V58"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="V51:V52"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="V22:X22"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="O9:Q9"/>
@@ -6045,24 +8405,11 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="C5:L5"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="V46:X46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="P52:Q52 W56:X56" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>